--- a/rfuse/Archive/로컬_개별실험_v3/ext4_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/ext4_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1045</v>
+        <v>8462</v>
       </c>
       <c r="C3" s="3">
-        <v>4173</v>
+        <v>16000</v>
       </c>
       <c r="D3" s="3">
-        <v>5197</v>
+        <v>24100</v>
       </c>
       <c r="E3" s="3">
-        <v>10600</v>
+        <v>28900</v>
       </c>
       <c r="F3" s="3">
-        <v>28200</v>
+        <v>31600</v>
       </c>
       <c r="G3" s="3">
-        <v>11600</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>26300</v>
+        <v>4253</v>
       </c>
       <c r="C8" s="3">
-        <v>22600</v>
+        <v>8078</v>
       </c>
       <c r="D8" s="3">
-        <v>41600</v>
+        <v>16600</v>
       </c>
       <c r="E8" s="3">
-        <v>83500</v>
+        <v>33800</v>
       </c>
       <c r="F8" s="3">
-        <v>160000</v>
+        <v>263000</v>
       </c>
       <c r="G8" s="3">
-        <v>256000</v>
+        <v>369000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2938</v>
+        <v>11300</v>
       </c>
       <c r="C13" s="3">
-        <v>3540</v>
+        <v>16100</v>
       </c>
       <c r="D13" s="3">
-        <v>3696</v>
+        <v>17400</v>
       </c>
       <c r="E13" s="3">
-        <v>3560</v>
+        <v>20400</v>
       </c>
       <c r="F13" s="3">
-        <v>3674</v>
+        <v>21500</v>
       </c>
       <c r="G13" s="3">
-        <v>4099</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>364000</v>
+        <v>386000</v>
       </c>
       <c r="C18" s="3">
-        <v>466000</v>
+        <v>485000</v>
       </c>
       <c r="D18" s="3">
         <v>572000</v>
       </c>
       <c r="E18" s="3">
-        <v>599000</v>
+        <v>620000</v>
       </c>
       <c r="F18" s="3">
-        <v>648000</v>
+        <v>618000</v>
       </c>
       <c r="G18" s="3">
-        <v>188000</v>
+        <v>631000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3459</v>
+        <v>3605</v>
       </c>
       <c r="C23" s="3">
-        <v>5512</v>
+        <v>5801</v>
       </c>
       <c r="D23" s="3">
-        <v>8747</v>
+        <v>8258</v>
       </c>
       <c r="E23" s="3">
-        <v>9651</v>
+        <v>9214</v>
       </c>
       <c r="F23" s="3">
-        <v>9295</v>
+        <v>6279</v>
       </c>
       <c r="G23" s="3">
-        <v>20700</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>152000</v>
+        <v>120000</v>
       </c>
       <c r="C28" s="3">
-        <v>180000</v>
+        <v>182000</v>
       </c>
       <c r="D28" s="3">
-        <v>271000</v>
+        <v>286000</v>
       </c>
       <c r="E28" s="3">
-        <v>300000</v>
+        <v>301000</v>
       </c>
       <c r="F28" s="3">
-        <v>281000</v>
+        <v>273000</v>
       </c>
       <c r="G28" s="3">
-        <v>767000</v>
+        <v>354000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>10600</v>
+        <v>8982</v>
       </c>
       <c r="C33" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="D33" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F33" s="3">
         <v>13800</v>
       </c>
-      <c r="E33" s="3">
-        <v>14100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>14700</v>
-      </c>
       <c r="G33" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>309000</v>
+        <v>331000</v>
       </c>
       <c r="C38" s="3">
-        <v>379000</v>
+        <v>428000</v>
       </c>
       <c r="D38" s="3">
-        <v>434000</v>
+        <v>500000</v>
       </c>
       <c r="E38" s="3">
-        <v>436000</v>
+        <v>545000</v>
       </c>
       <c r="F38" s="3">
-        <v>467000</v>
+        <v>570000</v>
       </c>
       <c r="G38" s="3">
-        <v>482000</v>
+        <v>522000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/Archive/로컬_개별실험_v3/ext4_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/ext4_summary.xlsx
@@ -453,19 +453,19 @@
         <v>8462</v>
       </c>
       <c r="C3" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="D3" s="3">
-        <v>24100</v>
+        <v>23400</v>
       </c>
       <c r="E3" s="3">
-        <v>28900</v>
+        <v>28200</v>
       </c>
       <c r="F3" s="3">
-        <v>31600</v>
+        <v>30700</v>
       </c>
       <c r="G3" s="3">
-        <v>32300</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4253</v>
+        <v>4345</v>
       </c>
       <c r="C8" s="3">
-        <v>8078</v>
+        <v>10500</v>
       </c>
       <c r="D8" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E8" s="3">
-        <v>33800</v>
+        <v>159000</v>
       </c>
       <c r="F8" s="3">
-        <v>263000</v>
+        <v>264000</v>
       </c>
       <c r="G8" s="3">
-        <v>369000</v>
+        <v>366000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>11300</v>
+        <v>13800</v>
       </c>
       <c r="C13" s="3">
-        <v>16100</v>
+        <v>17200</v>
       </c>
       <c r="D13" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="E13" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="F13" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="G13" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>386000</v>
+        <v>390000</v>
       </c>
       <c r="C18" s="3">
-        <v>485000</v>
+        <v>489000</v>
       </c>
       <c r="D18" s="3">
-        <v>572000</v>
+        <v>558000</v>
       </c>
       <c r="E18" s="3">
-        <v>620000</v>
+        <v>571000</v>
       </c>
       <c r="F18" s="3">
-        <v>618000</v>
+        <v>616000</v>
       </c>
       <c r="G18" s="3">
-        <v>631000</v>
+        <v>639000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3605</v>
+        <v>3447</v>
       </c>
       <c r="C23" s="3">
-        <v>5801</v>
+        <v>5851</v>
       </c>
       <c r="D23" s="3">
-        <v>8258</v>
+        <v>7757</v>
       </c>
       <c r="E23" s="3">
-        <v>9214</v>
+        <v>7816</v>
       </c>
       <c r="F23" s="3">
-        <v>6279</v>
+        <v>8102</v>
       </c>
       <c r="G23" s="3">
-        <v>8436</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>120000</v>
+        <v>116000</v>
       </c>
       <c r="C28" s="3">
-        <v>182000</v>
+        <v>166000</v>
       </c>
       <c r="D28" s="3">
-        <v>286000</v>
+        <v>322000</v>
       </c>
       <c r="E28" s="3">
-        <v>301000</v>
+        <v>311000</v>
       </c>
       <c r="F28" s="3">
-        <v>273000</v>
+        <v>282000</v>
       </c>
       <c r="G28" s="3">
-        <v>354000</v>
+        <v>304000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>8982</v>
+        <v>9752</v>
       </c>
       <c r="C33" s="3">
+        <v>10700</v>
+      </c>
+      <c r="D33" s="3">
         <v>11800</v>
       </c>
-      <c r="D33" s="3">
-        <v>12600</v>
-      </c>
       <c r="E33" s="3">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="F33" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="G33" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>331000</v>
+        <v>349000</v>
       </c>
       <c r="C38" s="3">
-        <v>428000</v>
+        <v>417000</v>
       </c>
       <c r="D38" s="3">
-        <v>500000</v>
+        <v>502000</v>
       </c>
       <c r="E38" s="3">
-        <v>545000</v>
+        <v>547000</v>
       </c>
       <c r="F38" s="3">
-        <v>570000</v>
+        <v>581000</v>
       </c>
       <c r="G38" s="3">
-        <v>522000</v>
+        <v>497000</v>
       </c>
     </row>
   </sheetData>
